--- a/backend/slack-hrbp/reports/Attendance_sneha_hr_from_Feb-2024_to_Mar-2025.xlsx
+++ b/backend/slack-hrbp/reports/Attendance_sneha_hr_from_Feb-2024_to_Mar-2025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="472">
   <si>
     <t>Feb-2024 (Leave Date)</t>
   </si>
@@ -1377,6 +1377,57 @@
   </si>
   <si>
     <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>Feb-2024 Leave Summary</t>
+  </si>
+  <si>
+    <t>Sick Leave</t>
+  </si>
+  <si>
+    <t>Unplanned Leave</t>
+  </si>
+  <si>
+    <t>WFH</t>
+  </si>
+  <si>
+    <t>Mar-2024 Leave Summary</t>
+  </si>
+  <si>
+    <t>Apr-2024 Leave Summary</t>
+  </si>
+  <si>
+    <t>May-2024 Leave Summary</t>
+  </si>
+  <si>
+    <t>Jun-2024 Leave Summary</t>
+  </si>
+  <si>
+    <t>Jul-2024 Leave Summary</t>
+  </si>
+  <si>
+    <t>Aug-2024 Leave Summary</t>
+  </si>
+  <si>
+    <t>Sep-2024 Leave Summary</t>
+  </si>
+  <si>
+    <t>Oct-2024 Leave Summary</t>
+  </si>
+  <si>
+    <t>Nov-2024 Leave Summary</t>
+  </si>
+  <si>
+    <t>Dec-2024 Leave Summary</t>
+  </si>
+  <si>
+    <t>Jan-2025 Leave Summary</t>
+  </si>
+  <si>
+    <t>Feb-2025 Leave Summary</t>
+  </si>
+  <si>
+    <t>Mar-2025 Leave Summary</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:AB39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1453,7 +1504,7 @@
     <col min="24" max="24" width="20.890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.16015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="21.2421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="21.6015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="24.52734375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="21.68359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -4155,6 +4206,43 @@
         <v>29</v>
       </c>
     </row>
+    <row r="35">
+      <c r="AA35" t="s" s="0">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="AA36" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="AB36" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="AA37" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="AB37" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="AA38" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="AB38" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="AA39" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="AB39" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
